--- a/data/trans_orig/P79A3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P79A3_2023-Estudios-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3819</v>
+        <v>3785</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3399914994715261</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7922130720831061</v>
+        <v>0.7850858403078995</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -762,19 +762,19 @@
         <v>3424</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1381</v>
+        <v>1405</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5507</v>
+        <v>5833</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4719369662943938</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1903240137461613</v>
+        <v>0.1935665166104374</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.759012106528943</v>
+        <v>0.8039017292205389</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -783,19 +783,19 @@
         <v>5063</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2182</v>
+        <v>2561</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8258</v>
+        <v>8338</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4192686688815948</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1806651226356566</v>
+        <v>0.212097353377012</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6838469561951578</v>
+        <v>0.6904788503962931</v>
       </c>
     </row>
     <row r="5">
@@ -812,7 +812,7 @@
         <v>3182</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1002</v>
+        <v>1045</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>4821</v>
@@ -821,7 +821,7 @@
         <v>0.660008500528474</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.207786927916894</v>
+        <v>0.2167431175529974</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,19 +833,19 @@
         <v>3832</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1749</v>
+        <v>1423</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5875</v>
+        <v>5851</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.528063033705606</v>
+        <v>0.5280630337056061</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2409878934710567</v>
+        <v>0.196098270779457</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8096759862538386</v>
+        <v>0.8064334833895626</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -854,19 +854,19 @@
         <v>7013</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3818</v>
+        <v>3738</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9894</v>
+        <v>9515</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5807313311184052</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3161530438048424</v>
+        <v>0.3095211496037069</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8193348773643432</v>
+        <v>0.7879026466229879</v>
       </c>
     </row>
     <row r="6">
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6668</v>
+        <v>6674</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1031915930944385</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3619857848239881</v>
+        <v>0.362298040310616</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -979,7 +979,7 @@
         <v>4029</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1796</v>
+        <v>1753</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>6048</v>
@@ -988,7 +988,7 @@
         <v>0.6661847049240367</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2969709397665032</v>
+        <v>0.2898604152888848</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -1000,19 +1000,19 @@
         <v>5930</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2095</v>
+        <v>2125</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12116</v>
+        <v>12218</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2423497910163116</v>
+        <v>0.2423497910163117</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08561718425028242</v>
+        <v>0.086827600404963</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4951387823517039</v>
+        <v>0.4993421962044639</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>16520</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11753</v>
+        <v>11747</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>18421</v>
@@ -1038,7 +1038,7 @@
         <v>0.8968084069055614</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6380142151760123</v>
+        <v>0.6377019596893837</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4252</v>
+        <v>4295</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3338152950759632</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7030290602334966</v>
+        <v>0.7101395847111154</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -1071,19 +1071,19 @@
         <v>18539</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12353</v>
+        <v>12251</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>22374</v>
+        <v>22344</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7576502089836884</v>
+        <v>0.7576502089836883</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5048612176482957</v>
+        <v>0.5006578037955363</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9143828157497177</v>
+        <v>0.9131723995950369</v>
       </c>
     </row>
     <row r="9">
@@ -1188,7 +1188,7 @@
         <v>2965</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>842</v>
+        <v>1256</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>4429</v>
@@ -1197,7 +1197,7 @@
         <v>0.669395400526553</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.190192211559612</v>
+        <v>0.2835571656437922</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1209,7 +1209,7 @@
         <v>4095</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1581</v>
+        <v>1643</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>5559</v>
@@ -1218,7 +1218,7 @@
         <v>0.7365747390272185</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2844500408837378</v>
+        <v>0.2955932404192462</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3587</v>
+        <v>3173</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.330604599473447</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8098077884403879</v>
+        <v>0.7164428343562068</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>3977</v>
+        <v>3909</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2634252609727815</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7154929680094572</v>
+        <v>0.7032599349012029</v>
       </c>
     </row>
     <row r="12">
@@ -1376,19 +1376,19 @@
         <v>4669</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1505</v>
+        <v>1604</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10100</v>
+        <v>9997</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1915972259141038</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06175245821665759</v>
+        <v>0.06582226761861502</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4144314047783571</v>
+        <v>0.4102180077773293</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1397,19 +1397,19 @@
         <v>10419</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6555</v>
+        <v>6798</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13643</v>
+        <v>13669</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5875074923935328</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3696347068214734</v>
+        <v>0.3833272499444576</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7692958389302559</v>
+        <v>0.7707667883795449</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -1418,19 +1418,19 @@
         <v>15088</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9307</v>
+        <v>8891</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22353</v>
+        <v>22148</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3583459435200219</v>
+        <v>0.358345943520022</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2210396880691576</v>
+        <v>0.211155886355124</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5308818833818063</v>
+        <v>0.5260101808418316</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>19702</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14271</v>
+        <v>14374</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22866</v>
+        <v>22767</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8084027740858962</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5855685952216431</v>
+        <v>0.5897819922226711</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9382475417833427</v>
+        <v>0.9341777323813852</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -1468,19 +1468,19 @@
         <v>7315</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4091</v>
+        <v>4065</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11179</v>
+        <v>10936</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4124925076064671</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2307041610697441</v>
+        <v>0.2292332116204551</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6303652931785277</v>
+        <v>0.6166727500555425</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -1489,19 +1489,19 @@
         <v>27017</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>19752</v>
+        <v>19957</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32798</v>
+        <v>33214</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6416540564799781</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4691181166181936</v>
+        <v>0.4739898191581681</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7789603119308424</v>
+        <v>0.7888441136448763</v>
       </c>
     </row>
     <row r="15">
